--- a/public/files/carga_detalle_plantilla.xlsx
+++ b/public/files/carga_detalle_plantilla.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\oras-virus\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B60DFE-E13D-4CB4-A749-F74F0DFE0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4D8735-9877-4E96-9D3F-6ADF5ACFDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A496888-CD1A-4EB4-A29A-603B345A66E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="carga_detalle_plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,6 +114,9 @@
     <t>hCoV-19/Peru/LIM-INS-41597/2022</t>
   </si>
   <si>
+    <t>Charit0</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -115,46 +132,43 @@
     <t>hCoV-19/Peru/LIM-INS-41591/2022</t>
   </si>
   <si>
+    <t>Charit1</t>
+  </si>
+  <si>
     <t>hCoV-19/Peru/LIM-INS-41522/2022</t>
   </si>
   <si>
+    <t>Charit2</t>
+  </si>
+  <si>
     <t>hCoV-19/Peru/LIM-INS-41599/2022</t>
   </si>
   <si>
+    <t>Charit3</t>
+  </si>
+  <si>
     <t>hCoV-19/Peru/LIM-INS-41471/2022</t>
   </si>
   <si>
+    <t>Charit4</t>
+  </si>
+  <si>
     <t>hCoV-19/Peru/LIM-INS-41477/2022</t>
   </si>
   <si>
+    <t>Charit5</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
     <t>hCoV-19/Peru/LIM-INS-41566/2023</t>
   </si>
   <si>
+    <t>Charit6</t>
+  </si>
+  <si>
     <t>hCoV-19/Peru/LIM-INS-41543/2022</t>
-  </si>
-  <si>
-    <t>Charit0</t>
-  </si>
-  <si>
-    <t>Charit1</t>
-  </si>
-  <si>
-    <t>Charit2</t>
-  </si>
-  <si>
-    <t>Charit3</t>
-  </si>
-  <si>
-    <t>Charit4</t>
-  </si>
-  <si>
-    <t>Charit5</t>
-  </si>
-  <si>
-    <t>Charit6</t>
   </si>
   <si>
     <t>Charit7</t>
@@ -163,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,434 +186,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,98 +219,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,18 +539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7332692A-DF85-46B8-9ABD-A439C431A26D}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="25" max="25" width="20.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1118,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1130,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1141,7 +656,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1163,16 +678,16 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1181,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1192,7 +707,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1214,16 +729,16 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1232,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1243,7 +758,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1265,16 +780,16 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1283,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1294,7 +809,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1316,16 +831,16 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1334,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1345,7 +860,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1367,16 +882,16 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1385,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1396,7 +911,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1418,16 +933,16 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1436,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1447,7 +962,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1469,7 +984,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1478,7 +993,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1487,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1498,7 +1013,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1519,7 +1034,6 @@
       <c r="Y9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>